--- a/Stuff/My Tasks.xlsx
+++ b/Stuff/My Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Number</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Create development branch</t>
   </si>
   <si>
-    <t>Install SQL Express on desktop, and git bash and build Diamond</t>
-  </si>
-  <si>
     <t>Investigate what visual studio I get for free</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>In progress</t>
   </si>
   <si>
-    <t>Understand fibonacci sequence</t>
-  </si>
-  <si>
     <t>Undersand sAFE project methodology</t>
   </si>
   <si>
@@ -81,6 +75,27 @@
   </si>
   <si>
     <t>Review what Jira is available</t>
+  </si>
+  <si>
+    <t>Do SQL development that generates a conflict, create a new Events table</t>
+  </si>
+  <si>
+    <t>Create an SSIS package and change powershell scripts so it can deploy it</t>
+  </si>
+  <si>
+    <t>Experiment with SSIS package conflicts</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Install git bash on desktop and pull repository</t>
+  </si>
+  <si>
+    <t>Build Diamond on desktop</t>
+  </si>
+  <si>
+    <t>Install SQL Express on desktop</t>
   </si>
 </sst>
 </file>
@@ -112,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,11 +150,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -147,6 +173,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -429,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +500,9 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -484,111 +515,147 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stuff/My Tasks.xlsx
+++ b/Stuff/My Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Number</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Install SQL Express on desktop</t>
+  </si>
+  <si>
+    <t>Think about how to use tags in Git</t>
+  </si>
+  <si>
+    <t>Think about Git text editor</t>
   </si>
 </sst>
 </file>
@@ -458,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,57 +611,75 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stuff/My Tasks.xlsx
+++ b/Stuff/My Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Number</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Think about Git text editor</t>
+  </si>
+  <si>
+    <t>What is the difference between GitHub and GitLab</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,39 +650,48 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stuff/My Tasks.xlsx
+++ b/Stuff/My Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Number</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Do some development, create two new fact tables; demog an privacy. Split between two Jira users. Follow Jiraflow process to release</t>
   </si>
   <si>
-    <t>Create OAT and Live instance of Diamond (on my laptop)</t>
-  </si>
-  <si>
     <t>Create script the regenerates logins and users</t>
   </si>
   <si>
@@ -105,6 +102,15 @@
   </si>
   <si>
     <t>What is the difference between GitHub and GitLab</t>
+  </si>
+  <si>
+    <t>Install notepadd++ and test its file compare</t>
+  </si>
+  <si>
+    <t>Create Live instance of Diamond (on my laptop)</t>
+  </si>
+  <si>
+    <t>Control permissions to master branch, only first users should be able to checkout</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,39 +516,39 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
@@ -551,147 +557,165 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>17</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2"/>
+      <c r="B25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stuff/My Tasks.xlsx
+++ b/Stuff/My Tasks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarTech\Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MarTech\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCC18F2-3A0B-447F-B8C1-4E92A31E6F43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="3885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="3885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Number</t>
   </si>
@@ -104,19 +105,25 @@
     <t>What is the difference between GitHub and GitLab</t>
   </si>
   <si>
-    <t>Install notepadd++ and test its file compare</t>
-  </si>
-  <si>
     <t>Create Live instance of Diamond (on my laptop)</t>
   </si>
   <si>
     <t>Control permissions to master branch, only first users should be able to checkout</t>
+  </si>
+  <si>
+    <t>Test notepad++ file compare</t>
+  </si>
+  <si>
+    <t>Install notepad++</t>
+  </si>
+  <si>
+    <t>Properly understand Git reset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -472,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,198 +531,220 @@
         <v>2.5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>16</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stuff/My Tasks.xlsx
+++ b/Stuff/My Tasks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MarTech\Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MarTech\Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCC18F2-3A0B-447F-B8C1-4E92A31E6F43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="3885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="3885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
-  <si>
-    <t>Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -117,13 +113,43 @@
     <t>Install notepad++</t>
   </si>
   <si>
-    <t>Properly understand Git reset</t>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Device git branching strategy</t>
+  </si>
+  <si>
+    <t>Dev process</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Test creating regular expression in SQL</t>
+  </si>
+  <si>
+    <t>Getting a job</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Methodology</t>
+  </si>
+  <si>
+    <t>Jira</t>
+  </si>
+  <si>
+    <t>Properly understand Git reset and revert. Create Diagram shows how head moves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,17 +198,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -197,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -479,272 +494,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>10</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>11.7</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>16</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>17</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2"/>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
